--- a/basic_tkinter_arar_maker/ARAR.xlsx
+++ b/basic_tkinter_arar_maker/ARAR.xlsx
@@ -501,7 +501,7 @@
         <v>45071</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>45087</v>
       </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>45076</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>45076</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>45049</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G6" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -673,20 +673,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>juan b yap</t>
+          <t>asdfa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1111</v>
+        <v>555</v>
       </c>
       <c r="C7" t="n">
-        <v>12345</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45107</v>
+        <v>45127</v>
       </c>
       <c r="E7" t="n">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12345</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -710,20 +710,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>asdfa</t>
+          <t>poopoo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>555</v>
+        <v>1111</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>123456</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45127</v>
+        <v>45463</v>
       </c>
       <c r="E8" t="n">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="9">
@@ -751,17 +751,17 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60227</v>
+        <v>171338</v>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="G9" t="n">
-        <v>34757</v>
+        <v>34535</v>
       </c>
       <c r="H9" t="n">
-        <v>25469</v>
+        <v>13124</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
